--- a/wordExcel/word.xlsx
+++ b/wordExcel/word.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -57,7 +57,7 @@
     <t>veteran</t>
   </si>
   <si>
-    <t>ask</t>
+    <t>often</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>

--- a/wordExcel/word.xlsx
+++ b/wordExcel/word.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>socialism</t>
   </si>
@@ -57,7 +57,11 @@
     <t>veteran</t>
   </si>
   <si>
-    <t>often</t>
+    <t>the Mid-Autumn Festival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Spring Festival</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +406,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -413,6 +417,11 @@
     <row r="1" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
